--- a/DistributionSystems/SimulinkOpal/Banshee/relay_settings/F3_relay_banshee.xlsx
+++ b/DistributionSystems/SimulinkOpal/Banshee/relay_settings/F3_relay_banshee.xlsx
@@ -150,7 +150,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -186,6 +186,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -776,7 +782,7 @@
   <dimension ref="A1:V19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -888,8 +894,8 @@
       <c r="F2" s="5">
         <v>0.5</v>
       </c>
-      <c r="G2" s="6">
-        <v>600</v>
+      <c r="G2" s="13">
+        <v>1200</v>
       </c>
       <c r="H2" s="11">
         <v>1</v>
@@ -900,20 +906,20 @@
       <c r="J2" s="6">
         <v>0</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="14">
+        <v>0.80187537387448016</v>
+      </c>
+      <c r="L2" s="6">
+        <v>1</v>
+      </c>
+      <c r="M2" s="6">
+        <v>1</v>
+      </c>
+      <c r="N2" s="6">
         <v>0.8</v>
       </c>
-      <c r="L2" s="6">
-        <v>1</v>
-      </c>
-      <c r="M2" s="6">
-        <v>1</v>
-      </c>
-      <c r="N2" s="6">
-        <v>0.9</v>
-      </c>
       <c r="O2" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="P2" s="6">
         <v>20</v>
@@ -956,8 +962,8 @@
       <c r="F3" s="5">
         <v>0.5</v>
       </c>
-      <c r="G3" s="6">
-        <v>400</v>
+      <c r="G3" s="13">
+        <v>1200</v>
       </c>
       <c r="H3" s="11">
         <v>1</v>
@@ -968,20 +974,20 @@
       <c r="J3" s="6">
         <v>0</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="14">
+        <v>0.20046884346862004</v>
+      </c>
+      <c r="L3" s="6">
+        <v>1</v>
+      </c>
+      <c r="M3" s="6">
+        <v>1</v>
+      </c>
+      <c r="N3" s="6">
         <v>0.8</v>
       </c>
-      <c r="L3" s="6">
-        <v>1</v>
-      </c>
-      <c r="M3" s="6">
-        <v>1</v>
-      </c>
-      <c r="N3" s="6">
-        <v>0.9</v>
-      </c>
       <c r="O3" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="P3" s="6">
         <v>20</v>
@@ -1024,8 +1030,8 @@
       <c r="F4" s="5">
         <v>0.5</v>
       </c>
-      <c r="G4" s="6">
-        <v>400</v>
+      <c r="G4" s="13">
+        <v>1200</v>
       </c>
       <c r="H4" s="11">
         <v>1</v>
@@ -1036,20 +1042,20 @@
       <c r="J4" s="6">
         <v>0</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="14">
+        <v>0.90210979560879001</v>
+      </c>
+      <c r="L4" s="6">
+        <v>1</v>
+      </c>
+      <c r="M4" s="6">
+        <v>1</v>
+      </c>
+      <c r="N4" s="6">
         <v>0.8</v>
       </c>
-      <c r="L4" s="6">
-        <v>1</v>
-      </c>
-      <c r="M4" s="6">
-        <v>1</v>
-      </c>
-      <c r="N4" s="6">
-        <v>0.9</v>
-      </c>
       <c r="O4" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="P4" s="6">
         <v>20</v>
@@ -1092,8 +1098,8 @@
       <c r="F5" s="5">
         <v>0.5</v>
       </c>
-      <c r="G5" s="6">
-        <v>600</v>
+      <c r="G5" s="13">
+        <v>1200</v>
       </c>
       <c r="H5" s="11">
         <v>1</v>
@@ -1104,20 +1110,20 @@
       <c r="J5" s="6">
         <v>0</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="14">
+        <v>0.50117210867155004</v>
+      </c>
+      <c r="L5" s="6">
+        <v>1</v>
+      </c>
+      <c r="M5" s="6">
+        <v>1</v>
+      </c>
+      <c r="N5" s="6">
         <v>0.8</v>
       </c>
-      <c r="L5" s="6">
-        <v>1</v>
-      </c>
-      <c r="M5" s="6">
-        <v>1</v>
-      </c>
-      <c r="N5" s="6">
-        <v>0.9</v>
-      </c>
       <c r="O5" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="P5" s="6">
         <v>20</v>
@@ -1160,8 +1166,8 @@
       <c r="F6" s="5">
         <v>0.5</v>
       </c>
-      <c r="G6" s="6">
-        <v>200</v>
+      <c r="G6" s="13">
+        <v>1200</v>
       </c>
       <c r="H6" s="11">
         <v>1</v>
@@ -1172,20 +1178,20 @@
       <c r="J6" s="6">
         <v>0</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="14">
+        <v>0.40093768693724008</v>
+      </c>
+      <c r="L6" s="6">
+        <v>1</v>
+      </c>
+      <c r="M6" s="6">
+        <v>1</v>
+      </c>
+      <c r="N6" s="6">
         <v>0.8</v>
       </c>
-      <c r="L6" s="6">
-        <v>1</v>
-      </c>
-      <c r="M6" s="6">
-        <v>1</v>
-      </c>
-      <c r="N6" s="6">
-        <v>0.9</v>
-      </c>
       <c r="O6" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="P6" s="6">
         <v>20</v>
@@ -1228,8 +1234,8 @@
       <c r="F7" s="5">
         <v>0.5</v>
       </c>
-      <c r="G7" s="6">
-        <v>200</v>
+      <c r="G7" s="13">
+        <v>1200</v>
       </c>
       <c r="H7" s="11">
         <v>1</v>
@@ -1240,20 +1246,20 @@
       <c r="J7" s="6">
         <v>0</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="14">
+        <v>0.40093768693724008</v>
+      </c>
+      <c r="L7" s="6">
+        <v>1</v>
+      </c>
+      <c r="M7" s="6">
+        <v>1</v>
+      </c>
+      <c r="N7" s="6">
         <v>0.8</v>
       </c>
-      <c r="L7" s="6">
-        <v>1</v>
-      </c>
-      <c r="M7" s="6">
-        <v>1</v>
-      </c>
-      <c r="N7" s="6">
-        <v>0.9</v>
-      </c>
       <c r="O7" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="P7" s="6">
         <v>20</v>
@@ -1296,8 +1302,8 @@
       <c r="F8" s="5">
         <v>0.5</v>
       </c>
-      <c r="G8" s="6">
-        <v>1500</v>
+      <c r="G8" s="13">
+        <v>3500</v>
       </c>
       <c r="H8" s="11">
         <v>1</v>
@@ -1308,20 +1314,20 @@
       <c r="J8" s="6">
         <v>0</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="14">
+        <v>1.1856300170858387</v>
+      </c>
+      <c r="L8" s="6">
+        <v>1</v>
+      </c>
+      <c r="M8" s="6">
+        <v>1</v>
+      </c>
+      <c r="N8" s="6">
         <v>0.8</v>
       </c>
-      <c r="L8" s="6">
-        <v>1</v>
-      </c>
-      <c r="M8" s="6">
-        <v>1</v>
-      </c>
-      <c r="N8" s="6">
-        <v>0.9</v>
-      </c>
       <c r="O8" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="P8" s="6">
         <v>20</v>
@@ -1364,8 +1370,8 @@
       <c r="F9" s="5">
         <v>0.5</v>
       </c>
-      <c r="G9" s="6">
-        <v>1500</v>
+      <c r="G9" s="13">
+        <v>3500</v>
       </c>
       <c r="H9" s="11">
         <v>1</v>
@@ -1376,20 +1382,20 @@
       <c r="J9" s="6">
         <v>0</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="14">
+        <v>1.1856300170858387</v>
+      </c>
+      <c r="L9" s="6">
+        <v>1</v>
+      </c>
+      <c r="M9" s="6">
+        <v>1</v>
+      </c>
+      <c r="N9" s="6">
         <v>0.8</v>
       </c>
-      <c r="L9" s="6">
-        <v>1</v>
-      </c>
-      <c r="M9" s="6">
-        <v>1</v>
-      </c>
-      <c r="N9" s="6">
-        <v>0.9</v>
-      </c>
       <c r="O9" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="P9" s="6">
         <v>20</v>
@@ -1432,8 +1438,8 @@
       <c r="F10" s="5">
         <v>0.5</v>
       </c>
-      <c r="G10" s="6">
-        <v>2200</v>
+      <c r="G10" s="13">
+        <v>3500</v>
       </c>
       <c r="H10" s="11">
         <v>1</v>
@@ -1444,20 +1450,20 @@
       <c r="J10" s="6">
         <v>0</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="14">
+        <v>2.4700625355954968</v>
+      </c>
+      <c r="L10" s="6">
+        <v>1</v>
+      </c>
+      <c r="M10" s="6">
+        <v>1</v>
+      </c>
+      <c r="N10" s="6">
         <v>0.8</v>
       </c>
-      <c r="L10" s="6">
-        <v>1</v>
-      </c>
-      <c r="M10" s="6">
-        <v>1</v>
-      </c>
-      <c r="N10" s="6">
-        <v>0.9</v>
-      </c>
       <c r="O10" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="P10" s="6">
         <v>20</v>

--- a/DistributionSystems/SimulinkOpal/Banshee/relay_settings/F3_relay_banshee.xlsx
+++ b/DistributionSystems/SimulinkOpal/Banshee/relay_settings/F3_relay_banshee.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-15" yWindow="7005" windowWidth="28830" windowHeight="2340"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -205,6 +205,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -535,7 +538,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -570,7 +573,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -782,7 +785,7 @@
   <dimension ref="A1:V19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -892,7 +895,7 @@
         <v>0.5</v>
       </c>
       <c r="F2" s="5">
-        <v>0.5</v>
+        <v>13</v>
       </c>
       <c r="G2" s="13">
         <v>1200</v>
@@ -916,7 +919,7 @@
         <v>1</v>
       </c>
       <c r="N2" s="6">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="O2" s="6">
         <v>1.2</v>
@@ -925,22 +928,22 @@
         <v>20</v>
       </c>
       <c r="Q2" s="6">
-        <v>1</v>
-      </c>
-      <c r="R2" s="6">
-        <v>0.7</v>
+        <v>0</v>
+      </c>
+      <c r="R2" s="14">
+        <v>0.80187537387448016</v>
       </c>
       <c r="S2" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T2" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U2" s="6">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="V2" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -960,7 +963,7 @@
         <v>0.5</v>
       </c>
       <c r="F3" s="5">
-        <v>0.5</v>
+        <v>13</v>
       </c>
       <c r="G3" s="13">
         <v>1200</v>
@@ -984,7 +987,7 @@
         <v>1</v>
       </c>
       <c r="N3" s="6">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="O3" s="6">
         <v>1.2</v>
@@ -993,22 +996,22 @@
         <v>20</v>
       </c>
       <c r="Q3" s="6">
-        <v>1</v>
-      </c>
-      <c r="R3" s="6">
-        <v>0.7</v>
+        <v>0</v>
+      </c>
+      <c r="R3" s="14">
+        <v>0.20046884346862004</v>
       </c>
       <c r="S3" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T3" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U3" s="6">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="V3" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
@@ -1028,7 +1031,7 @@
         <v>0.5</v>
       </c>
       <c r="F4" s="5">
-        <v>0.5</v>
+        <v>13</v>
       </c>
       <c r="G4" s="13">
         <v>1200</v>
@@ -1052,7 +1055,7 @@
         <v>1</v>
       </c>
       <c r="N4" s="6">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="O4" s="6">
         <v>1.2</v>
@@ -1061,22 +1064,22 @@
         <v>20</v>
       </c>
       <c r="Q4" s="6">
-        <v>1</v>
-      </c>
-      <c r="R4" s="6">
-        <v>0.7</v>
+        <v>0</v>
+      </c>
+      <c r="R4" s="14">
+        <v>0.90210979560879001</v>
       </c>
       <c r="S4" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T4" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U4" s="6">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="V4" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
@@ -1096,7 +1099,7 @@
         <v>0.5</v>
       </c>
       <c r="F5" s="5">
-        <v>0.5</v>
+        <v>13</v>
       </c>
       <c r="G5" s="13">
         <v>1200</v>
@@ -1120,7 +1123,7 @@
         <v>1</v>
       </c>
       <c r="N5" s="6">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="O5" s="6">
         <v>1.2</v>
@@ -1129,22 +1132,22 @@
         <v>20</v>
       </c>
       <c r="Q5" s="6">
-        <v>1</v>
-      </c>
-      <c r="R5" s="6">
-        <v>0.7</v>
+        <v>0</v>
+      </c>
+      <c r="R5" s="14">
+        <v>0.50117210867155004</v>
       </c>
       <c r="S5" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T5" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U5" s="6">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="V5" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
@@ -1164,7 +1167,7 @@
         <v>0.5</v>
       </c>
       <c r="F6" s="5">
-        <v>0.5</v>
+        <v>13</v>
       </c>
       <c r="G6" s="13">
         <v>1200</v>
@@ -1188,7 +1191,7 @@
         <v>1</v>
       </c>
       <c r="N6" s="6">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="O6" s="6">
         <v>1.2</v>
@@ -1197,22 +1200,22 @@
         <v>20</v>
       </c>
       <c r="Q6" s="6">
-        <v>1</v>
-      </c>
-      <c r="R6" s="6">
-        <v>0.7</v>
+        <v>0</v>
+      </c>
+      <c r="R6" s="14">
+        <v>0.40093768693724008</v>
       </c>
       <c r="S6" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T6" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U6" s="6">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="V6" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
@@ -1232,7 +1235,7 @@
         <v>0.5</v>
       </c>
       <c r="F7" s="5">
-        <v>0.5</v>
+        <v>13</v>
       </c>
       <c r="G7" s="13">
         <v>1200</v>
@@ -1256,7 +1259,7 @@
         <v>1</v>
       </c>
       <c r="N7" s="6">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="O7" s="6">
         <v>1.2</v>
@@ -1265,22 +1268,22 @@
         <v>20</v>
       </c>
       <c r="Q7" s="6">
-        <v>1</v>
-      </c>
-      <c r="R7" s="6">
-        <v>0.7</v>
+        <v>0</v>
+      </c>
+      <c r="R7" s="14">
+        <v>0.40093768693724008</v>
       </c>
       <c r="S7" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T7" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U7" s="6">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="V7" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -1300,7 +1303,7 @@
         <v>0.5</v>
       </c>
       <c r="F8" s="5">
-        <v>0.5</v>
+        <v>13</v>
       </c>
       <c r="G8" s="13">
         <v>3500</v>
@@ -1324,7 +1327,7 @@
         <v>1</v>
       </c>
       <c r="N8" s="6">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="O8" s="6">
         <v>1.2</v>
@@ -1333,22 +1336,22 @@
         <v>20</v>
       </c>
       <c r="Q8" s="6">
-        <v>1</v>
-      </c>
-      <c r="R8" s="6">
-        <v>0.7</v>
+        <v>0</v>
+      </c>
+      <c r="R8" s="14">
+        <v>1.1856300170858387</v>
       </c>
       <c r="S8" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T8" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U8" s="6">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="V8" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
@@ -1368,7 +1371,7 @@
         <v>0.5</v>
       </c>
       <c r="F9" s="5">
-        <v>0.5</v>
+        <v>13</v>
       </c>
       <c r="G9" s="13">
         <v>3500</v>
@@ -1392,7 +1395,7 @@
         <v>1</v>
       </c>
       <c r="N9" s="6">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="O9" s="6">
         <v>1.2</v>
@@ -1401,22 +1404,22 @@
         <v>20</v>
       </c>
       <c r="Q9" s="6">
-        <v>1</v>
-      </c>
-      <c r="R9" s="6">
-        <v>0.7</v>
+        <v>0</v>
+      </c>
+      <c r="R9" s="14">
+        <v>1.1856300170858387</v>
       </c>
       <c r="S9" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T9" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U9" s="6">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="V9" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
@@ -1436,7 +1439,7 @@
         <v>0.5</v>
       </c>
       <c r="F10" s="5">
-        <v>0.5</v>
+        <v>13</v>
       </c>
       <c r="G10" s="13">
         <v>3500</v>
@@ -1460,7 +1463,7 @@
         <v>1</v>
       </c>
       <c r="N10" s="6">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="O10" s="6">
         <v>1.2</v>
@@ -1469,22 +1472,22 @@
         <v>20</v>
       </c>
       <c r="Q10" s="6">
-        <v>1</v>
-      </c>
-      <c r="R10" s="6">
-        <v>0.7</v>
+        <v>0</v>
+      </c>
+      <c r="R10" s="14">
+        <v>2.4700625355954968</v>
       </c>
       <c r="S10" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T10" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U10" s="6">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="V10" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">

--- a/DistributionSystems/SimulinkOpal/Banshee/relay_settings/F3_relay_banshee.xlsx
+++ b/DistributionSystems/SimulinkOpal/Banshee/relay_settings/F3_relay_banshee.xlsx
@@ -785,7 +785,7 @@
   <dimension ref="A1:V19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -895,7 +895,7 @@
         <v>0.5</v>
       </c>
       <c r="F2" s="5">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G2" s="13">
         <v>1200</v>
@@ -963,7 +963,7 @@
         <v>0.5</v>
       </c>
       <c r="F3" s="5">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G3" s="13">
         <v>1200</v>
@@ -1031,7 +1031,7 @@
         <v>0.5</v>
       </c>
       <c r="F4" s="5">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G4" s="13">
         <v>1200</v>
@@ -1099,7 +1099,7 @@
         <v>0.5</v>
       </c>
       <c r="F5" s="5">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G5" s="13">
         <v>1200</v>
@@ -1167,7 +1167,7 @@
         <v>0.5</v>
       </c>
       <c r="F6" s="5">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G6" s="13">
         <v>1200</v>
@@ -1235,7 +1235,7 @@
         <v>0.5</v>
       </c>
       <c r="F7" s="5">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G7" s="13">
         <v>1200</v>
@@ -1294,7 +1294,7 @@
         <v>480</v>
       </c>
       <c r="C8" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D8" s="5">
         <v>12</v>
@@ -1303,7 +1303,7 @@
         <v>0.5</v>
       </c>
       <c r="F8" s="5">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G8" s="13">
         <v>3500</v>
@@ -1362,7 +1362,7 @@
         <v>480</v>
       </c>
       <c r="C9" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D9" s="5">
         <v>12</v>
@@ -1371,7 +1371,7 @@
         <v>0.5</v>
       </c>
       <c r="F9" s="5">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G9" s="13">
         <v>3500</v>
@@ -1430,7 +1430,7 @@
         <v>480</v>
       </c>
       <c r="C10" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D10" s="5">
         <v>12</v>
@@ -1439,7 +1439,7 @@
         <v>0.5</v>
       </c>
       <c r="F10" s="5">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G10" s="13">
         <v>3500</v>

--- a/DistributionSystems/SimulinkOpal/Banshee/relay_settings/F3_relay_banshee.xlsx
+++ b/DistributionSystems/SimulinkOpal/Banshee/relay_settings/F3_relay_banshee.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="relays" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -785,7 +785,7 @@
   <dimension ref="A1:V19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -886,7 +886,7 @@
         <v>13800</v>
       </c>
       <c r="C2" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D2" s="5">
         <v>12</v>
@@ -954,7 +954,7 @@
         <v>13800</v>
       </c>
       <c r="C3" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D3" s="5">
         <v>12</v>
@@ -1022,7 +1022,7 @@
         <v>13800</v>
       </c>
       <c r="C4" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D4" s="5">
         <v>12</v>
@@ -1090,7 +1090,7 @@
         <v>13800</v>
       </c>
       <c r="C5" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D5" s="5">
         <v>12</v>
@@ -1158,7 +1158,7 @@
         <v>13800</v>
       </c>
       <c r="C6" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D6" s="5">
         <v>12</v>
@@ -1226,7 +1226,7 @@
         <v>13800</v>
       </c>
       <c r="C7" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D7" s="5">
         <v>12</v>

--- a/DistributionSystems/SimulinkOpal/Banshee/relay_settings/F3_relay_banshee.xlsx
+++ b/DistributionSystems/SimulinkOpal/Banshee/relay_settings/F3_relay_banshee.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-15" yWindow="7005" windowWidth="28830" windowHeight="2340"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -538,7 +538,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -573,7 +573,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -785,7 +785,7 @@
   <dimension ref="A1:V19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1491,15 +1491,72 @@
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="8"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6">
+        <v>13800</v>
+      </c>
+      <c r="C11" s="5">
+        <v>5</v>
+      </c>
+      <c r="D11" s="5">
+        <v>12</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F11" s="5">
+        <v>2</v>
+      </c>
+      <c r="G11" s="13">
+        <v>1200</v>
+      </c>
+      <c r="H11" s="11">
+        <v>1</v>
+      </c>
+      <c r="I11" s="6">
+        <v>20</v>
+      </c>
+      <c r="J11" s="6">
+        <v>0</v>
+      </c>
+      <c r="K11" s="14">
+        <v>0.80187537387448016</v>
+      </c>
+      <c r="L11" s="6">
+        <v>1</v>
+      </c>
+      <c r="M11" s="6">
+        <v>1</v>
+      </c>
+      <c r="N11" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="O11" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="P11" s="6">
+        <v>20</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>0</v>
+      </c>
+      <c r="R11" s="14">
+        <v>0.80187537387448016</v>
+      </c>
+      <c r="S11" s="6">
+        <v>1</v>
+      </c>
+      <c r="T11" s="6">
+        <v>1</v>
+      </c>
+      <c r="U11" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="V11" s="6">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>

--- a/DistributionSystems/SimulinkOpal/Banshee/relay_settings/F3_relay_banshee.xlsx
+++ b/DistributionSystems/SimulinkOpal/Banshee/relay_settings/F3_relay_banshee.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="7005" windowWidth="28830" windowHeight="2340"/>
+    <workbookView xWindow="-12" yWindow="7008" windowWidth="23256" windowHeight="2340"/>
   </bookViews>
   <sheets>
     <sheet name="relays" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
   <si>
     <t>VRMSLL</t>
   </si>
@@ -59,6 +59,29 @@
   </si>
   <si>
     <t>CB Initial State [closed=1; open=0]</t>
+  </si>
+  <si>
+    <t>81U Trip Pickup [Hz]</t>
+  </si>
+  <si>
+    <t>81U Trip Delay [Sec]</t>
+  </si>
+  <si>
+    <t>81O Trip Pickup [Hz]</t>
+  </si>
+  <si>
+    <t>81O Trip Delay [Sec]</t>
+  </si>
+  <si>
+    <t>81RFRP
+[Hz/Sec]</t>
+  </si>
+  <si>
+    <t>81RFDFP
+[Hz]</t>
+  </si>
+  <si>
+    <t>81RF Trip Delay [Sec]</t>
   </si>
 </sst>
 </file>
@@ -492,6 +515,44 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38382</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>7843</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7764780" y="3329940"/>
+          <a:ext cx="3254022" cy="2568163"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -782,35 +843,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V19"/>
+  <dimension ref="A1:AJ19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A11"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD1" sqref="AD1:AJ1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="11.140625" style="6" customWidth="1"/>
+    <col min="1" max="2" width="11.109375" style="6" customWidth="1"/>
     <col min="3" max="3" width="16" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="6" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" style="6" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" style="6" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" style="6" customWidth="1"/>
-    <col min="11" max="11" width="17.42578125" style="6" customWidth="1"/>
-    <col min="12" max="15" width="12.5703125" style="6" customWidth="1"/>
-    <col min="16" max="16" width="17.28515625" style="6" customWidth="1"/>
-    <col min="17" max="17" width="12.5703125" style="6" customWidth="1"/>
-    <col min="18" max="18" width="17.28515625" style="6" customWidth="1"/>
-    <col min="19" max="20" width="12.5703125" style="6" customWidth="1"/>
-    <col min="21" max="21" width="11.5703125" style="6" customWidth="1"/>
-    <col min="22" max="22" width="12" style="6" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="4" width="14.5546875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="17.88671875" style="6" customWidth="1"/>
+    <col min="9" max="9" width="16.88671875" style="6" customWidth="1"/>
+    <col min="10" max="10" width="12.5546875" style="6" customWidth="1"/>
+    <col min="11" max="11" width="17.44140625" style="6" customWidth="1"/>
+    <col min="12" max="15" width="12.5546875" style="6" customWidth="1"/>
+    <col min="16" max="16" width="13.44140625" style="6" customWidth="1"/>
+    <col min="17" max="17" width="13" style="6" customWidth="1"/>
+    <col min="18" max="18" width="11.6640625" style="6" customWidth="1"/>
+    <col min="19" max="19" width="12.109375" style="6" customWidth="1"/>
+    <col min="20" max="21" width="9.109375" style="6"/>
+    <col min="22" max="22" width="11.109375" style="6" customWidth="1"/>
+    <col min="23" max="23" width="17.33203125" style="6" customWidth="1"/>
+    <col min="24" max="24" width="12.5546875" style="6" customWidth="1"/>
+    <col min="25" max="25" width="17.33203125" style="6" customWidth="1"/>
+    <col min="26" max="27" width="12.5546875" style="6" customWidth="1"/>
+    <col min="28" max="28" width="11.5546875" style="6" customWidth="1"/>
+    <col min="29" max="29" width="12" style="6" customWidth="1"/>
+    <col min="30" max="30" width="13.44140625" style="6" customWidth="1"/>
+    <col min="31" max="31" width="13" style="6" customWidth="1"/>
+    <col min="32" max="32" width="11.6640625" style="6" customWidth="1"/>
+    <col min="33" max="33" width="12.109375" style="6" customWidth="1"/>
+    <col min="34" max="35" width="9.109375" style="6"/>
+    <col min="36" max="36" width="11.109375" style="6" customWidth="1"/>
+    <col min="37" max="16384" width="9.109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
@@ -856,29 +929,71 @@
       <c r="O1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="AD1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ1" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -925,28 +1040,70 @@
         <v>1.2</v>
       </c>
       <c r="P2" s="6">
+        <v>54</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>2</v>
+      </c>
+      <c r="R2" s="6">
+        <v>66</v>
+      </c>
+      <c r="S2" s="6">
+        <v>2</v>
+      </c>
+      <c r="T2" s="6">
+        <v>2</v>
+      </c>
+      <c r="U2" s="6">
+        <v>57</v>
+      </c>
+      <c r="V2" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="W2" s="6">
         <v>20</v>
       </c>
-      <c r="Q2" s="6">
+      <c r="X2" s="6">
         <v>0</v>
       </c>
-      <c r="R2" s="14">
+      <c r="Y2" s="14">
         <v>0.80187537387448016</v>
       </c>
-      <c r="S2" s="6">
-        <v>1</v>
-      </c>
-      <c r="T2" s="6">
-        <v>1</v>
-      </c>
-      <c r="U2" s="6">
+      <c r="Z2" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="6">
         <v>0.5</v>
       </c>
-      <c r="V2" s="6">
+      <c r="AC2" s="6">
         <v>1.2</v>
       </c>
+      <c r="AD2" s="6">
+        <v>54</v>
+      </c>
+      <c r="AE2" s="6">
+        <v>2</v>
+      </c>
+      <c r="AF2" s="6">
+        <v>66</v>
+      </c>
+      <c r="AG2" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH2" s="6">
+        <v>2</v>
+      </c>
+      <c r="AI2" s="6">
+        <v>57</v>
+      </c>
+      <c r="AJ2" s="6">
+        <v>0.01</v>
+      </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -993,28 +1150,70 @@
         <v>1.2</v>
       </c>
       <c r="P3" s="6">
+        <v>54</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>2</v>
+      </c>
+      <c r="R3" s="6">
+        <v>66</v>
+      </c>
+      <c r="S3" s="6">
+        <v>2</v>
+      </c>
+      <c r="T3" s="6">
+        <v>2</v>
+      </c>
+      <c r="U3" s="6">
+        <v>57</v>
+      </c>
+      <c r="V3" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="W3" s="6">
         <v>20</v>
       </c>
-      <c r="Q3" s="6">
+      <c r="X3" s="6">
         <v>0</v>
       </c>
-      <c r="R3" s="14">
+      <c r="Y3" s="14">
         <v>0.20046884346862004</v>
       </c>
-      <c r="S3" s="6">
-        <v>1</v>
-      </c>
-      <c r="T3" s="6">
-        <v>1</v>
-      </c>
-      <c r="U3" s="6">
+      <c r="Z3" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="6">
         <v>0.5</v>
       </c>
-      <c r="V3" s="6">
+      <c r="AC3" s="6">
         <v>1.2</v>
       </c>
+      <c r="AD3" s="6">
+        <v>54</v>
+      </c>
+      <c r="AE3" s="6">
+        <v>2</v>
+      </c>
+      <c r="AF3" s="6">
+        <v>66</v>
+      </c>
+      <c r="AG3" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH3" s="6">
+        <v>2</v>
+      </c>
+      <c r="AI3" s="6">
+        <v>57</v>
+      </c>
+      <c r="AJ3" s="6">
+        <v>0.01</v>
+      </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -1061,28 +1260,70 @@
         <v>1.2</v>
       </c>
       <c r="P4" s="6">
+        <v>54</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>2</v>
+      </c>
+      <c r="R4" s="6">
+        <v>66</v>
+      </c>
+      <c r="S4" s="6">
+        <v>2</v>
+      </c>
+      <c r="T4" s="6">
+        <v>2</v>
+      </c>
+      <c r="U4" s="6">
+        <v>57</v>
+      </c>
+      <c r="V4" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="W4" s="6">
         <v>20</v>
       </c>
-      <c r="Q4" s="6">
+      <c r="X4" s="6">
         <v>0</v>
       </c>
-      <c r="R4" s="14">
+      <c r="Y4" s="14">
         <v>0.90210979560879001</v>
       </c>
-      <c r="S4" s="6">
-        <v>1</v>
-      </c>
-      <c r="T4" s="6">
-        <v>1</v>
-      </c>
-      <c r="U4" s="6">
+      <c r="Z4" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="6">
         <v>0.5</v>
       </c>
-      <c r="V4" s="6">
+      <c r="AC4" s="6">
         <v>1.2</v>
       </c>
+      <c r="AD4" s="6">
+        <v>54</v>
+      </c>
+      <c r="AE4" s="6">
+        <v>2</v>
+      </c>
+      <c r="AF4" s="6">
+        <v>66</v>
+      </c>
+      <c r="AG4" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH4" s="6">
+        <v>2</v>
+      </c>
+      <c r="AI4" s="6">
+        <v>57</v>
+      </c>
+      <c r="AJ4" s="6">
+        <v>0.01</v>
+      </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -1129,28 +1370,70 @@
         <v>1.2</v>
       </c>
       <c r="P5" s="6">
+        <v>54</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>2</v>
+      </c>
+      <c r="R5" s="6">
+        <v>66</v>
+      </c>
+      <c r="S5" s="6">
+        <v>2</v>
+      </c>
+      <c r="T5" s="6">
+        <v>2</v>
+      </c>
+      <c r="U5" s="6">
+        <v>57</v>
+      </c>
+      <c r="V5" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="W5" s="6">
         <v>20</v>
       </c>
-      <c r="Q5" s="6">
+      <c r="X5" s="6">
         <v>0</v>
       </c>
-      <c r="R5" s="14">
+      <c r="Y5" s="14">
         <v>0.50117210867155004</v>
       </c>
-      <c r="S5" s="6">
-        <v>1</v>
-      </c>
-      <c r="T5" s="6">
-        <v>1</v>
-      </c>
-      <c r="U5" s="6">
+      <c r="Z5" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="6">
         <v>0.5</v>
       </c>
-      <c r="V5" s="6">
+      <c r="AC5" s="6">
         <v>1.2</v>
       </c>
+      <c r="AD5" s="6">
+        <v>54</v>
+      </c>
+      <c r="AE5" s="6">
+        <v>2</v>
+      </c>
+      <c r="AF5" s="6">
+        <v>66</v>
+      </c>
+      <c r="AG5" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH5" s="6">
+        <v>2</v>
+      </c>
+      <c r="AI5" s="6">
+        <v>57</v>
+      </c>
+      <c r="AJ5" s="6">
+        <v>0.01</v>
+      </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -1197,28 +1480,70 @@
         <v>1.2</v>
       </c>
       <c r="P6" s="6">
+        <v>54</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>2</v>
+      </c>
+      <c r="R6" s="6">
+        <v>66</v>
+      </c>
+      <c r="S6" s="6">
+        <v>2</v>
+      </c>
+      <c r="T6" s="6">
+        <v>2</v>
+      </c>
+      <c r="U6" s="6">
+        <v>57</v>
+      </c>
+      <c r="V6" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="W6" s="6">
         <v>20</v>
       </c>
-      <c r="Q6" s="6">
+      <c r="X6" s="6">
         <v>0</v>
       </c>
-      <c r="R6" s="14">
+      <c r="Y6" s="14">
         <v>0.40093768693724008</v>
       </c>
-      <c r="S6" s="6">
-        <v>1</v>
-      </c>
-      <c r="T6" s="6">
-        <v>1</v>
-      </c>
-      <c r="U6" s="6">
+      <c r="Z6" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="6">
         <v>0.5</v>
       </c>
-      <c r="V6" s="6">
+      <c r="AC6" s="6">
         <v>1.2</v>
       </c>
+      <c r="AD6" s="6">
+        <v>54</v>
+      </c>
+      <c r="AE6" s="6">
+        <v>2</v>
+      </c>
+      <c r="AF6" s="6">
+        <v>66</v>
+      </c>
+      <c r="AG6" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH6" s="6">
+        <v>2</v>
+      </c>
+      <c r="AI6" s="6">
+        <v>57</v>
+      </c>
+      <c r="AJ6" s="6">
+        <v>0.01</v>
+      </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -1265,28 +1590,70 @@
         <v>1.2</v>
       </c>
       <c r="P7" s="6">
+        <v>54</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>2</v>
+      </c>
+      <c r="R7" s="6">
+        <v>66</v>
+      </c>
+      <c r="S7" s="6">
+        <v>2</v>
+      </c>
+      <c r="T7" s="6">
+        <v>2</v>
+      </c>
+      <c r="U7" s="6">
+        <v>57</v>
+      </c>
+      <c r="V7" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="W7" s="6">
         <v>20</v>
       </c>
-      <c r="Q7" s="6">
+      <c r="X7" s="6">
         <v>0</v>
       </c>
-      <c r="R7" s="14">
+      <c r="Y7" s="14">
         <v>0.40093768693724008</v>
       </c>
-      <c r="S7" s="6">
-        <v>1</v>
-      </c>
-      <c r="T7" s="6">
-        <v>1</v>
-      </c>
-      <c r="U7" s="6">
+      <c r="Z7" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="6">
         <v>0.5</v>
       </c>
-      <c r="V7" s="6">
+      <c r="AC7" s="6">
         <v>1.2</v>
       </c>
+      <c r="AD7" s="6">
+        <v>54</v>
+      </c>
+      <c r="AE7" s="6">
+        <v>2</v>
+      </c>
+      <c r="AF7" s="6">
+        <v>66</v>
+      </c>
+      <c r="AG7" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH7" s="6">
+        <v>2</v>
+      </c>
+      <c r="AI7" s="6">
+        <v>57</v>
+      </c>
+      <c r="AJ7" s="6">
+        <v>0.01</v>
+      </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -1333,28 +1700,70 @@
         <v>1.2</v>
       </c>
       <c r="P8" s="6">
+        <v>54</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>2</v>
+      </c>
+      <c r="R8" s="6">
+        <v>66</v>
+      </c>
+      <c r="S8" s="6">
+        <v>2</v>
+      </c>
+      <c r="T8" s="6">
+        <v>2</v>
+      </c>
+      <c r="U8" s="6">
+        <v>57</v>
+      </c>
+      <c r="V8" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="W8" s="6">
         <v>20</v>
       </c>
-      <c r="Q8" s="6">
+      <c r="X8" s="6">
         <v>0</v>
       </c>
-      <c r="R8" s="14">
+      <c r="Y8" s="14">
         <v>1.1856300170858387</v>
       </c>
-      <c r="S8" s="6">
-        <v>1</v>
-      </c>
-      <c r="T8" s="6">
-        <v>1</v>
-      </c>
-      <c r="U8" s="6">
+      <c r="Z8" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="6">
         <v>0.5</v>
       </c>
-      <c r="V8" s="6">
+      <c r="AC8" s="6">
         <v>1.2</v>
       </c>
+      <c r="AD8" s="6">
+        <v>54</v>
+      </c>
+      <c r="AE8" s="6">
+        <v>2</v>
+      </c>
+      <c r="AF8" s="6">
+        <v>66</v>
+      </c>
+      <c r="AG8" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH8" s="6">
+        <v>2</v>
+      </c>
+      <c r="AI8" s="6">
+        <v>57</v>
+      </c>
+      <c r="AJ8" s="6">
+        <v>0.01</v>
+      </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>8</v>
       </c>
@@ -1401,28 +1810,70 @@
         <v>1.2</v>
       </c>
       <c r="P9" s="6">
+        <v>54</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>2</v>
+      </c>
+      <c r="R9" s="6">
+        <v>66</v>
+      </c>
+      <c r="S9" s="6">
+        <v>2</v>
+      </c>
+      <c r="T9" s="6">
+        <v>2</v>
+      </c>
+      <c r="U9" s="6">
+        <v>57</v>
+      </c>
+      <c r="V9" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="W9" s="6">
         <v>20</v>
       </c>
-      <c r="Q9" s="6">
+      <c r="X9" s="6">
         <v>0</v>
       </c>
-      <c r="R9" s="14">
+      <c r="Y9" s="14">
         <v>1.1856300170858387</v>
       </c>
-      <c r="S9" s="6">
-        <v>1</v>
-      </c>
-      <c r="T9" s="6">
-        <v>1</v>
-      </c>
-      <c r="U9" s="6">
+      <c r="Z9" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="6">
         <v>0.5</v>
       </c>
-      <c r="V9" s="6">
+      <c r="AC9" s="6">
         <v>1.2</v>
       </c>
+      <c r="AD9" s="6">
+        <v>54</v>
+      </c>
+      <c r="AE9" s="6">
+        <v>2</v>
+      </c>
+      <c r="AF9" s="6">
+        <v>66</v>
+      </c>
+      <c r="AG9" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH9" s="6">
+        <v>2</v>
+      </c>
+      <c r="AI9" s="6">
+        <v>57</v>
+      </c>
+      <c r="AJ9" s="6">
+        <v>0.01</v>
+      </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>9</v>
       </c>
@@ -1469,28 +1920,70 @@
         <v>1.2</v>
       </c>
       <c r="P10" s="6">
+        <v>54</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>2</v>
+      </c>
+      <c r="R10" s="6">
+        <v>66</v>
+      </c>
+      <c r="S10" s="6">
+        <v>2</v>
+      </c>
+      <c r="T10" s="6">
+        <v>2</v>
+      </c>
+      <c r="U10" s="6">
+        <v>57</v>
+      </c>
+      <c r="V10" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="W10" s="6">
         <v>20</v>
       </c>
-      <c r="Q10" s="6">
+      <c r="X10" s="6">
         <v>0</v>
       </c>
-      <c r="R10" s="14">
+      <c r="Y10" s="14">
         <v>2.4700625355954968</v>
       </c>
-      <c r="S10" s="6">
-        <v>1</v>
-      </c>
-      <c r="T10" s="6">
-        <v>1</v>
-      </c>
-      <c r="U10" s="6">
+      <c r="Z10" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="6">
         <v>0.5</v>
       </c>
-      <c r="V10" s="6">
+      <c r="AC10" s="6">
         <v>1.2</v>
       </c>
+      <c r="AD10" s="6">
+        <v>54</v>
+      </c>
+      <c r="AE10" s="6">
+        <v>2</v>
+      </c>
+      <c r="AF10" s="6">
+        <v>66</v>
+      </c>
+      <c r="AG10" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH10" s="6">
+        <v>2</v>
+      </c>
+      <c r="AI10" s="6">
+        <v>57</v>
+      </c>
+      <c r="AJ10" s="6">
+        <v>0.01</v>
+      </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -1537,28 +2030,70 @@
         <v>1.2</v>
       </c>
       <c r="P11" s="6">
+        <v>54</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>2</v>
+      </c>
+      <c r="R11" s="6">
+        <v>66</v>
+      </c>
+      <c r="S11" s="6">
+        <v>2</v>
+      </c>
+      <c r="T11" s="6">
+        <v>2</v>
+      </c>
+      <c r="U11" s="6">
+        <v>57</v>
+      </c>
+      <c r="V11" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="W11" s="6">
         <v>20</v>
       </c>
-      <c r="Q11" s="6">
+      <c r="X11" s="6">
         <v>0</v>
       </c>
-      <c r="R11" s="14">
+      <c r="Y11" s="14">
         <v>0.80187537387448016</v>
       </c>
-      <c r="S11" s="6">
-        <v>1</v>
-      </c>
-      <c r="T11" s="6">
-        <v>1</v>
-      </c>
-      <c r="U11" s="6">
+      <c r="Z11" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="6">
         <v>0.5</v>
       </c>
-      <c r="V11" s="6">
+      <c r="AC11" s="6">
         <v>1.2</v>
       </c>
+      <c r="AD11" s="6">
+        <v>54</v>
+      </c>
+      <c r="AE11" s="6">
+        <v>2</v>
+      </c>
+      <c r="AF11" s="6">
+        <v>66</v>
+      </c>
+      <c r="AG11" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH11" s="6">
+        <v>2</v>
+      </c>
+      <c r="AI11" s="6">
+        <v>57</v>
+      </c>
+      <c r="AJ11" s="6">
+        <v>0.01</v>
+      </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="D12" s="9"/>
@@ -1569,7 +2104,7 @@
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="D13" s="9"/>
@@ -1580,7 +2115,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="D14" s="9"/>
@@ -1591,7 +2126,7 @@
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="D15" s="9"/>
@@ -1602,7 +2137,7 @@
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="D16" s="9"/>
@@ -1613,7 +2148,7 @@
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="D17" s="9"/>
@@ -1624,7 +2159,7 @@
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="D18" s="9"/>
@@ -1635,7 +2170,7 @@
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="D19" s="9"/>

--- a/DistributionSystems/SimulinkOpal/Banshee/relay_settings/F3_relay_banshee.xlsx
+++ b/DistributionSystems/SimulinkOpal/Banshee/relay_settings/F3_relay_banshee.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="7008" windowWidth="23256" windowHeight="2340"/>
+    <workbookView xWindow="-15" yWindow="7005" windowWidth="23250" windowHeight="2340"/>
   </bookViews>
   <sheets>
     <sheet name="relays" sheetId="1" r:id="rId1"/>
@@ -845,45 +845,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD1" sqref="AD1:AJ1"/>
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AH2" sqref="AH2:AJ11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.109375" style="6" customWidth="1"/>
+    <col min="1" max="2" width="11.140625" style="6" customWidth="1"/>
     <col min="3" max="3" width="16" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" style="6" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="17.88671875" style="6" customWidth="1"/>
-    <col min="9" max="9" width="16.88671875" style="6" customWidth="1"/>
-    <col min="10" max="10" width="12.5546875" style="6" customWidth="1"/>
-    <col min="11" max="11" width="17.44140625" style="6" customWidth="1"/>
-    <col min="12" max="15" width="12.5546875" style="6" customWidth="1"/>
-    <col min="16" max="16" width="13.44140625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" style="6" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" style="6" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" style="6" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" style="6" customWidth="1"/>
+    <col min="12" max="15" width="12.5703125" style="6" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="6" customWidth="1"/>
     <col min="17" max="17" width="13" style="6" customWidth="1"/>
-    <col min="18" max="18" width="11.6640625" style="6" customWidth="1"/>
-    <col min="19" max="19" width="12.109375" style="6" customWidth="1"/>
-    <col min="20" max="21" width="9.109375" style="6"/>
-    <col min="22" max="22" width="11.109375" style="6" customWidth="1"/>
-    <col min="23" max="23" width="17.33203125" style="6" customWidth="1"/>
-    <col min="24" max="24" width="12.5546875" style="6" customWidth="1"/>
-    <col min="25" max="25" width="17.33203125" style="6" customWidth="1"/>
-    <col min="26" max="27" width="12.5546875" style="6" customWidth="1"/>
-    <col min="28" max="28" width="11.5546875" style="6" customWidth="1"/>
+    <col min="18" max="18" width="11.7109375" style="6" customWidth="1"/>
+    <col min="19" max="19" width="12.140625" style="6" customWidth="1"/>
+    <col min="20" max="21" width="9.140625" style="6"/>
+    <col min="22" max="22" width="11.140625" style="6" customWidth="1"/>
+    <col min="23" max="23" width="17.28515625" style="6" customWidth="1"/>
+    <col min="24" max="24" width="12.5703125" style="6" customWidth="1"/>
+    <col min="25" max="25" width="17.28515625" style="6" customWidth="1"/>
+    <col min="26" max="27" width="12.5703125" style="6" customWidth="1"/>
+    <col min="28" max="28" width="11.5703125" style="6" customWidth="1"/>
     <col min="29" max="29" width="12" style="6" customWidth="1"/>
-    <col min="30" max="30" width="13.44140625" style="6" customWidth="1"/>
+    <col min="30" max="30" width="13.42578125" style="6" customWidth="1"/>
     <col min="31" max="31" width="13" style="6" customWidth="1"/>
-    <col min="32" max="32" width="11.6640625" style="6" customWidth="1"/>
-    <col min="33" max="33" width="12.109375" style="6" customWidth="1"/>
-    <col min="34" max="35" width="9.109375" style="6"/>
-    <col min="36" max="36" width="11.109375" style="6" customWidth="1"/>
-    <col min="37" max="16384" width="9.109375" style="6"/>
+    <col min="32" max="32" width="11.7109375" style="6" customWidth="1"/>
+    <col min="33" max="33" width="12.140625" style="6" customWidth="1"/>
+    <col min="34" max="35" width="9.140625" style="6"/>
+    <col min="36" max="36" width="11.140625" style="6" customWidth="1"/>
+    <col min="37" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" s="7" customFormat="1" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
@@ -993,7 +993,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -1052,13 +1052,13 @@
         <v>2</v>
       </c>
       <c r="T2" s="6">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="U2" s="6">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="V2" s="6">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="W2" s="6">
         <v>20</v>
@@ -1094,16 +1094,16 @@
         <v>2</v>
       </c>
       <c r="AH2" s="6">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="AI2" s="6">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="AJ2" s="6">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -1162,13 +1162,13 @@
         <v>2</v>
       </c>
       <c r="T3" s="6">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="U3" s="6">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="V3" s="6">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="W3" s="6">
         <v>20</v>
@@ -1204,16 +1204,16 @@
         <v>2</v>
       </c>
       <c r="AH3" s="6">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="AI3" s="6">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="AJ3" s="6">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -1272,13 +1272,13 @@
         <v>2</v>
       </c>
       <c r="T4" s="6">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="U4" s="6">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="V4" s="6">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="W4" s="6">
         <v>20</v>
@@ -1314,16 +1314,16 @@
         <v>2</v>
       </c>
       <c r="AH4" s="6">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="AI4" s="6">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="AJ4" s="6">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -1382,13 +1382,13 @@
         <v>2</v>
       </c>
       <c r="T5" s="6">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="U5" s="6">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="V5" s="6">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="W5" s="6">
         <v>20</v>
@@ -1424,16 +1424,16 @@
         <v>2</v>
       </c>
       <c r="AH5" s="6">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="AI5" s="6">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="AJ5" s="6">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -1492,13 +1492,13 @@
         <v>2</v>
       </c>
       <c r="T6" s="6">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="U6" s="6">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="V6" s="6">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="W6" s="6">
         <v>20</v>
@@ -1534,16 +1534,16 @@
         <v>2</v>
       </c>
       <c r="AH6" s="6">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="AI6" s="6">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="AJ6" s="6">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -1602,13 +1602,13 @@
         <v>2</v>
       </c>
       <c r="T7" s="6">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="U7" s="6">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="V7" s="6">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="W7" s="6">
         <v>20</v>
@@ -1644,16 +1644,16 @@
         <v>2</v>
       </c>
       <c r="AH7" s="6">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="AI7" s="6">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="AJ7" s="6">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -1712,13 +1712,13 @@
         <v>2</v>
       </c>
       <c r="T8" s="6">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="U8" s="6">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="V8" s="6">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="W8" s="6">
         <v>20</v>
@@ -1754,16 +1754,16 @@
         <v>2</v>
       </c>
       <c r="AH8" s="6">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="AI8" s="6">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="AJ8" s="6">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>8</v>
       </c>
@@ -1822,13 +1822,13 @@
         <v>2</v>
       </c>
       <c r="T9" s="6">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="U9" s="6">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="V9" s="6">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="W9" s="6">
         <v>20</v>
@@ -1864,16 +1864,16 @@
         <v>2</v>
       </c>
       <c r="AH9" s="6">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="AI9" s="6">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="AJ9" s="6">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>9</v>
       </c>
@@ -1932,13 +1932,13 @@
         <v>2</v>
       </c>
       <c r="T10" s="6">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="U10" s="6">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="V10" s="6">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="W10" s="6">
         <v>20</v>
@@ -1974,16 +1974,16 @@
         <v>2</v>
       </c>
       <c r="AH10" s="6">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="AI10" s="6">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="AJ10" s="6">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -2042,13 +2042,13 @@
         <v>2</v>
       </c>
       <c r="T11" s="6">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="U11" s="6">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="V11" s="6">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="W11" s="6">
         <v>20</v>
@@ -2084,16 +2084,16 @@
         <v>2</v>
       </c>
       <c r="AH11" s="6">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="AI11" s="6">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="AJ11" s="6">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="D12" s="9"/>
@@ -2104,7 +2104,7 @@
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="D13" s="9"/>
@@ -2115,7 +2115,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="D14" s="9"/>
@@ -2126,7 +2126,7 @@
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="D15" s="9"/>
@@ -2137,7 +2137,7 @@
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="D16" s="9"/>
@@ -2148,7 +2148,7 @@
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="D17" s="9"/>
@@ -2159,7 +2159,7 @@
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="D18" s="9"/>
@@ -2170,7 +2170,7 @@
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="D19" s="9"/>
